--- a/Documents/Plan/Plan.xlsx
+++ b/Documents/Plan/Plan.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="-7620" windowWidth="38400" windowHeight="19800" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="38400" windowHeight="22180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="시트1" sheetId="1" r:id="rId1"/>
@@ -486,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL15"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="T1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="AL15" sqref="A1:AL15"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
